--- a/src/main/resources/examples/道路移动源.xlsx
+++ b/src/main/resources/examples/道路移动源.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="57480" yWindow="-90" windowWidth="19440" windowHeight="13710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SCC编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,13 +62,49 @@
   </si>
   <si>
     <t>柴油</t>
+  </si>
+  <si>
+    <t>PM10（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2（吨） </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3（吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +116,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -104,8 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,88 +466,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="31.625" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
-    <col min="9" max="9" width="23.875" customWidth="1"/>
-    <col min="10" max="10" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:19">
+      <c r="A2" s="1">
+        <v>1201111101</v>
+      </c>
+      <c r="B2" s="1">
         <v>2016</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>650000</v>
       </c>
-      <c r="C2">
-        <v>1201111101</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>30</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0.25</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0.52</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/examples/道路移动源.xlsx
+++ b/src/main/resources/examples/道路移动源.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_55A8A7EA751DAA14567DBF9D460E94E4841EF4D2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9EF320BC-9700-4F49-974C-AD258971D77D}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-90" windowWidth="19440" windowHeight="13710"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,36 +459,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.34765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.84765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.59765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,22 +499,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -546,7 +547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>1201111101</v>
       </c>
@@ -556,23 +557,23 @@
       <c r="C2" s="1">
         <v>650000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>1000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>60</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.25</v>
       </c>
       <c r="J2" s="1">
         <v>0.52</v>
@@ -608,7 +609,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E4 D5:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"汽油,柴油,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/examples/道路移动源.xlsx
+++ b/src/main/resources/examples/道路移动源.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_55A8A7EA751DAA14567DBF9D460E94E4841EF4D2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9EF320BC-9700-4F49-974C-AD258971D77D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC63476-6AC2-45FA-85C7-13CF51D1E680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="2280" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,26 +469,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G17" sqref="F3:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.34765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.84765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,15 +547,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1201111101</v>
+        <v>1201122502</v>
       </c>
       <c r="B2" s="1">
         <v>2016</v>
       </c>
       <c r="C2" s="1">
-        <v>650000</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -609,7 +609,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E4 D5:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"汽油,柴油,其他"</formula1>
     </dataValidation>
   </dataValidations>
